--- a/TestDataFile.xlsx
+++ b/TestDataFile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsivr\Desktop\WorkspaceEmir\Homework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A58093-74B2-4982-80BB-650E2517B88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseDataSheet" sheetId="2" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>testSuccessfulLogin</t>
   </si>
@@ -42,6 +48,39 @@
     <t>SortOrder</t>
   </si>
   <si>
+    <t>testuser2</t>
+  </si>
+  <si>
+    <t>SeleniumTestAccount1</t>
+  </si>
+  <si>
+    <t>testuser3</t>
+  </si>
+  <si>
+    <t>Price: Highest first</t>
+  </si>
+  <si>
+    <t>Price: Lowest first</t>
+  </si>
+  <si>
+    <t>Product Name: A to Z</t>
+  </si>
+  <si>
+    <t>Product Name: Z to A</t>
+  </si>
+  <si>
+    <t>In stock</t>
+  </si>
+  <si>
+    <t>Reference: Lowest first</t>
+  </si>
+  <si>
+    <t>Reference: Highest first</t>
+  </si>
+  <si>
+    <t>testFiltreleme</t>
+  </si>
+  <si>
     <t>Sort by average rating</t>
   </si>
   <si>
@@ -49,21 +88,12 @@
   </si>
   <si>
     <t>Sort by price: high to low</t>
-  </si>
-  <si>
-    <t>testuser2</t>
-  </si>
-  <si>
-    <t>SeleniumTestAccount1</t>
-  </si>
-  <si>
-    <t>testuser3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -389,28 +422,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.578125" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="26" customWidth="1" collapsed="1"/>
     <col min="4" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,68 +462,132 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F10"/>
+  <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
